--- a/Presupuesto - Comunicaciones.xlsx
+++ b/Presupuesto - Comunicaciones.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="PRIMER NIVEL" sheetId="2" r:id="rId2"/>
+    <sheet name="Presupuesto" sheetId="1" r:id="rId1"/>
+    <sheet name="UPSS" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipamiento por niveles" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Presupuesto!$A$1:$G$142</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="478">
   <si>
     <t>PRESUPUESTO</t>
   </si>
@@ -393,9 +394,6 @@
     <t>10.1.1</t>
   </si>
   <si>
-    <t>10.1.2</t>
-  </si>
-  <si>
     <t>Sistema de conectividad y seguridad informática</t>
   </si>
   <si>
@@ -1212,9 +1210,6 @@
     <t>Switch administrable PoE de 24p RJ-45 + 4 ranuras SFP</t>
   </si>
   <si>
-    <t>Access Point para interior</t>
-  </si>
-  <si>
     <t>Grabador NVR 16 canales, 16 interfaces de red PoE (incluye software)</t>
   </si>
   <si>
@@ -1305,9 +1300,6 @@
     <t>Elaboración de Sistema de Gestión en Salud</t>
   </si>
   <si>
-    <t>Licencia de GBD</t>
-  </si>
-  <si>
     <t>14.2.2</t>
   </si>
   <si>
@@ -1315,13 +1307,169 @@
   </si>
   <si>
     <t>Licencia Microsoft Office Professional 2019</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Primero</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Equipamiento / Conectividad</t>
+  </si>
+  <si>
+    <t>Punto PC</t>
+  </si>
+  <si>
+    <t>Punto IP</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>Sensor humo</t>
+  </si>
+  <si>
+    <t>Switch 24p</t>
+  </si>
+  <si>
+    <t>Cable UTP (m)</t>
+  </si>
+  <si>
+    <t>Conector RJ-45</t>
+  </si>
+  <si>
+    <t>Caja para Jack</t>
+  </si>
+  <si>
+    <t>Camara DOMO</t>
+  </si>
+  <si>
+    <t>Alarma</t>
+  </si>
+  <si>
+    <t>Switch 48p</t>
+  </si>
+  <si>
+    <t>Router (Proveedor)</t>
+  </si>
+  <si>
+    <t>Panel Control</t>
+  </si>
+  <si>
+    <t>Sirena Strobo</t>
+  </si>
+  <si>
+    <t>Extintores</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>65 Rollos de 305 m</t>
+  </si>
+  <si>
+    <t>Patch Cord 3m</t>
+  </si>
+  <si>
+    <t>Patch Cord 1m</t>
+  </si>
+  <si>
+    <t>Tubo PVC 2"</t>
+  </si>
+  <si>
+    <t>Tubo PVC 1 1/2"</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Punto AP</t>
+  </si>
+  <si>
+    <t>Licencia de GBD y Lenguaje de Programación</t>
+  </si>
+  <si>
+    <t>Obras preliminares</t>
+  </si>
+  <si>
+    <t>Canalización de enlace</t>
+  </si>
+  <si>
+    <t>17.1.1</t>
+  </si>
+  <si>
+    <t>Trazo y replanteo, red de comunicación</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>17.1.2</t>
+  </si>
+  <si>
+    <t>17.1.3</t>
+  </si>
+  <si>
+    <t>17.1.4</t>
+  </si>
+  <si>
+    <t>Excavación de zanjas para cableado subterraneo</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Preparación de cama de apoyo</t>
+  </si>
+  <si>
+    <t>Colocación de cinta de señalización</t>
+  </si>
+  <si>
+    <t>Relleno y apizonado de zanja</t>
+  </si>
+  <si>
+    <t>17.1.5</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Buzones de control</t>
+  </si>
+  <si>
+    <t>Bonen de control</t>
+  </si>
+  <si>
+    <t>Sub sistema horizaontal troncal</t>
+  </si>
+  <si>
+    <t>Instalación de FO, enlace y pruebas</t>
+  </si>
+  <si>
+    <t>Serv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,8 +1547,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,6 +1618,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1483,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1593,6 +1762,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,6 +1780,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,54 +2091,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1995,7 +2179,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="9">
         <f>F8+F28</f>
-        <v>100182</v>
+        <v>110823.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2010,7 +2194,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="14">
         <f>SUM(F9:F27)</f>
-        <v>83482</v>
+        <v>95623.6</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -2024,19 +2208,19 @@
       <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
-        <v>169</v>
+      <c r="D9" s="43">
+        <v>198</v>
       </c>
       <c r="E9" s="13">
         <v>39</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" ref="F9:F27" si="0">D9*E9</f>
-        <v>6591</v>
+        <v>7722</v>
       </c>
       <c r="G9" s="15"/>
       <c r="I9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2049,19 +2233,19 @@
       <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
-        <v>312</v>
+      <c r="D10" s="43">
+        <v>240</v>
       </c>
       <c r="E10" s="13">
         <v>9</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>2808</v>
+        <v>2160</v>
       </c>
       <c r="G10" s="15"/>
       <c r="I10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2074,19 +2258,19 @@
       <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12">
-        <v>3</v>
+      <c r="D11" s="43">
+        <v>2</v>
       </c>
       <c r="E11" s="13">
         <v>682</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>2046</v>
+        <v>1364</v>
       </c>
       <c r="G11" s="15"/>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2099,19 +2283,19 @@
       <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12">
-        <v>8</v>
+      <c r="D12" s="43">
+        <v>6</v>
       </c>
       <c r="E12" s="13">
         <v>300</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="15"/>
       <c r="I12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2124,19 +2308,19 @@
       <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12">
-        <v>7</v>
+      <c r="D13" s="43">
+        <v>8</v>
       </c>
       <c r="E13" s="13">
         <v>340</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>2380</v>
+        <v>2720</v>
       </c>
       <c r="G13" s="15"/>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2149,19 +2333,19 @@
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="12">
-        <v>7</v>
+      <c r="D14" s="43">
+        <v>8</v>
       </c>
       <c r="E14" s="13">
         <v>1154</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>8078</v>
+        <v>9232</v>
       </c>
       <c r="G14" s="15"/>
       <c r="I14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2174,19 +2358,19 @@
       <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12">
-        <v>45</v>
+      <c r="D15" s="43">
+        <v>99</v>
       </c>
       <c r="E15" s="13">
         <v>5.9</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>265.5</v>
+        <v>584.1</v>
       </c>
       <c r="G15" s="15"/>
       <c r="I15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,19 +2383,19 @@
       <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="12">
-        <v>45</v>
+      <c r="D16" s="43">
+        <v>198</v>
       </c>
       <c r="E16" s="13">
         <v>27</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>1215</v>
+        <v>5346</v>
       </c>
       <c r="G16" s="15"/>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2219,24 +2403,24 @@
         <v>22</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="12">
-        <v>45</v>
+      <c r="D17" s="43">
+        <v>99</v>
       </c>
       <c r="E17" s="13">
         <v>7</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>693</v>
       </c>
       <c r="G17" s="15"/>
       <c r="I17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2244,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>25</v>
@@ -2261,7 +2445,7 @@
       </c>
       <c r="G18" s="15"/>
       <c r="I18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2269,24 +2453,24 @@
         <v>24</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="12">
-        <v>6</v>
+      <c r="D19" s="43">
+        <v>8</v>
       </c>
       <c r="E19" s="13">
         <v>250</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2294,24 +2478,24 @@
         <v>31</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12">
-        <v>49</v>
+      <c r="D20" s="43">
+        <v>65</v>
       </c>
       <c r="E20" s="13">
         <v>400</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
-        <v>19600</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="15"/>
       <c r="I20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2319,7 +2503,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>25</v>
@@ -2336,7 +2520,7 @@
       </c>
       <c r="G21" s="15"/>
       <c r="I21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2344,7 +2528,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>25</v>
@@ -2361,7 +2545,7 @@
       </c>
       <c r="G22" s="15"/>
       <c r="I22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2369,7 +2553,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>25</v>
@@ -2386,7 +2570,7 @@
       </c>
       <c r="G23" s="15"/>
       <c r="I23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2394,7 +2578,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>25</v>
@@ -2411,7 +2595,7 @@
       </c>
       <c r="G24" s="15"/>
       <c r="I24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2424,19 +2608,19 @@
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="12">
-        <v>55</v>
+      <c r="D25" s="43">
+        <v>101</v>
       </c>
       <c r="E25" s="13">
         <v>8.5</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>858.5</v>
       </c>
       <c r="G25" s="15"/>
       <c r="I25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2449,19 +2633,19 @@
       <c r="C26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="12">
-        <v>36</v>
+      <c r="D26" s="43">
+        <v>8</v>
       </c>
       <c r="E26" s="13">
         <v>24</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
-        <v>864</v>
+        <v>192</v>
       </c>
       <c r="G26" s="15"/>
       <c r="I26" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2486,7 +2670,7 @@
       </c>
       <c r="G27" s="15"/>
       <c r="I27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2501,7 +2685,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14">
         <f>SUM(F29:F30)</f>
-        <v>16700</v>
+        <v>15200</v>
       </c>
       <c r="G28" s="15"/>
     </row>
@@ -2510,24 +2694,24 @@
         <v>51</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="12">
-        <v>7</v>
+      <c r="D29" s="43">
+        <v>6</v>
       </c>
       <c r="E29" s="13">
         <v>1500</v>
       </c>
       <c r="F29" s="13">
         <f>D29*E29</f>
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="G29" s="15"/>
       <c r="I29" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2535,12 +2719,12 @@
         <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="43">
         <v>2</v>
       </c>
       <c r="E30" s="13">
@@ -2552,7 +2736,7 @@
       </c>
       <c r="G30" s="15"/>
       <c r="I30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2568,7 +2752,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="9">
         <f>F32+F34</f>
-        <v>12800</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2592,7 +2776,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>25</v>
@@ -2609,7 +2793,7 @@
       </c>
       <c r="G33" s="15"/>
       <c r="I33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2624,7 +2808,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="14">
         <f>SUM(F35)</f>
-        <v>12400</v>
+        <v>10850</v>
       </c>
       <c r="G34" s="15"/>
     </row>
@@ -2633,24 +2817,24 @@
         <v>40</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="12">
-        <v>8</v>
+      <c r="D35" s="43">
+        <v>7</v>
       </c>
       <c r="E35" s="13">
         <v>1550</v>
       </c>
       <c r="F35" s="13">
         <f>D35*E35</f>
-        <v>12400</v>
+        <v>10850</v>
       </c>
       <c r="G35" s="15"/>
       <c r="I35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2666,7 +2850,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="9">
         <f>F37+F39</f>
-        <v>33309</v>
+        <v>34449</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2706,7 +2890,7 @@
         <v>12250</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2721,14 +2905,14 @@
       <c r="E39" s="13"/>
       <c r="F39" s="14">
         <f>SUM(F40:F45)</f>
-        <v>21059</v>
+        <v>22199</v>
       </c>
       <c r="G39" s="15"/>
       <c r="K39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2736,27 +2920,27 @@
         <v>58</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="12">
-        <v>17</v>
+      <c r="D40" s="43">
+        <v>22</v>
       </c>
       <c r="E40" s="13">
         <v>228</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" ref="F40:F45" si="1">D40*E40</f>
-        <v>3876</v>
+        <v>5016</v>
       </c>
       <c r="G40" s="15"/>
       <c r="I40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
@@ -2787,10 +2971,10 @@
       </c>
       <c r="G41" s="15"/>
       <c r="I41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" s="1">
         <v>6</v>
@@ -2801,7 +2985,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>25</v>
@@ -2818,10 +3002,10 @@
       </c>
       <c r="G42" s="15"/>
       <c r="I42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L42" s="1">
         <v>6</v>
@@ -2849,10 +3033,10 @@
       </c>
       <c r="G43" s="15"/>
       <c r="I43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43" s="1">
         <v>2</v>
@@ -2863,7 +3047,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>25</v>
@@ -2880,7 +3064,7 @@
       </c>
       <c r="G44" s="15"/>
       <c r="I44" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2888,7 +3072,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>25</v>
@@ -2905,7 +3089,7 @@
       </c>
       <c r="G45" s="15"/>
       <c r="I45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2920,7 +3104,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="9">
-        <f>F47+F56</f>
+        <f>F47+F55</f>
         <v>32355</v>
       </c>
     </row>
@@ -2935,7 +3119,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
       <c r="F47" s="14">
-        <f>SUM(F54)</f>
+        <f>SUM(F53)</f>
         <v>1960</v>
       </c>
       <c r="G47" s="15"/>
@@ -2945,7 +3129,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>25</v>
@@ -2959,10 +3143,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>25</v>
@@ -2976,10 +3160,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>25</v>
@@ -2993,10 +3177,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>25</v>
@@ -3010,10 +3194,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>25</v>
@@ -3026,206 +3210,228 @@
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="15"/>
+      <c r="A53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="20">
+        <v>4</v>
+      </c>
+      <c r="E53" s="22">
+        <v>490</v>
+      </c>
+      <c r="F53" s="22">
+        <f>D53*E53</f>
+        <v>1960</v>
+      </c>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="20">
-        <v>4</v>
-      </c>
-      <c r="E54" s="22">
-        <v>490</v>
-      </c>
-      <c r="F54" s="22">
-        <f>D54*E54</f>
-        <v>1960</v>
-      </c>
-      <c r="G54" s="21"/>
+      <c r="A54" s="7">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9">
+        <f>F55</f>
+        <v>30395</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>5</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9">
-        <f>F56</f>
+      <c r="A55" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14">
+        <f>SUM(F56:F59)</f>
         <v>30395</v>
       </c>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14">
-        <f>SUM(F57:F60)</f>
-        <v>30395</v>
+      <c r="A56" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2</v>
+      </c>
+      <c r="E56" s="13">
+        <v>469</v>
+      </c>
+      <c r="F56" s="13">
+        <f>D56*E56</f>
+        <v>938</v>
       </c>
       <c r="G56" s="15"/>
+      <c r="I56" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57" s="13">
-        <v>469</v>
+        <v>1834</v>
       </c>
       <c r="F57" s="13">
         <f>D57*E57</f>
-        <v>938</v>
+        <v>9170</v>
       </c>
       <c r="G57" s="15"/>
       <c r="I57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>397</v>
+        <v>75</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E58" s="13">
-        <v>1834</v>
+        <v>1399</v>
       </c>
       <c r="F58" s="13">
         <f>D58*E58</f>
-        <v>9170</v>
+        <v>18187</v>
       </c>
       <c r="G58" s="15"/>
       <c r="I58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E59" s="13">
-        <v>1399</v>
+        <v>1050</v>
       </c>
       <c r="F59" s="13">
         <f>D59*E59</f>
-        <v>18187</v>
+        <v>2100</v>
       </c>
       <c r="G59" s="15"/>
       <c r="I59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="7">
+        <v>6</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9">
+        <f>F61+F66</f>
+        <v>44463.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14">
+        <f>SUM(F62:F65)</f>
+        <v>43665.9</v>
+      </c>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="12">
-        <v>2</v>
-      </c>
-      <c r="E60" s="13">
-        <v>1050</v>
-      </c>
-      <c r="F60" s="13">
-        <f>D60*E60</f>
-        <v>2100</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="I60" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>6</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9">
-        <f>F62+F67</f>
-        <v>44463.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14">
-        <f>SUM(F63:F66)</f>
-        <v>43665.9</v>
+      <c r="D62" s="12">
+        <v>59</v>
+      </c>
+      <c r="E62" s="13">
+        <v>49</v>
+      </c>
+      <c r="F62" s="13">
+        <f>D62*E62</f>
+        <v>2891</v>
       </c>
       <c r="G62" s="15"/>
+      <c r="I62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>25</v>
@@ -3234,29 +3440,29 @@
         <v>59</v>
       </c>
       <c r="E63" s="13">
-        <v>49</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="F63" s="13">
         <f>D63*E63</f>
-        <v>2891</v>
+        <v>4312.8999999999996</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="I63" s="1" t="s">
-        <v>158</v>
+      <c r="I63" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K63" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>25</v>
@@ -3265,29 +3471,29 @@
         <v>59</v>
       </c>
       <c r="E64" s="13">
-        <v>73.099999999999994</v>
+        <v>119</v>
       </c>
       <c r="F64" s="13">
         <f>D64*E64</f>
-        <v>4312.8999999999996</v>
+        <v>7021</v>
       </c>
       <c r="G64" s="15"/>
       <c r="I64" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K64" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>25</v>
@@ -3296,397 +3502,391 @@
         <v>59</v>
       </c>
       <c r="E65" s="13">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="F65" s="13">
         <f>D65*E65</f>
-        <v>7021</v>
+        <v>29441</v>
       </c>
       <c r="G65" s="15"/>
-      <c r="I65" s="4" t="s">
-        <v>158</v>
+      <c r="I65" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K65" s="1">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14">
+        <f>SUM(F67)</f>
+        <v>798</v>
+      </c>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="12">
-        <v>59</v>
-      </c>
-      <c r="E66" s="13">
-        <v>499</v>
-      </c>
-      <c r="F66" s="13">
-        <f>D66*E66</f>
-        <v>29441</v>
-      </c>
-      <c r="G66" s="15"/>
-      <c r="I66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K66" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14">
-        <f>SUM(F68)</f>
+      <c r="D67" s="12">
+        <v>2</v>
+      </c>
+      <c r="E67" s="13">
+        <v>399</v>
+      </c>
+      <c r="F67" s="13">
+        <f>D67*E67</f>
         <v>798</v>
       </c>
       <c r="G67" s="15"/>
+      <c r="I67" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="A68" s="7">
+        <v>7</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9">
+        <f>F69</f>
+        <v>8444.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14">
+        <f>SUM(F70:F74)</f>
+        <v>8444.5</v>
+      </c>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="12">
-        <v>2</v>
-      </c>
-      <c r="E68" s="13">
-        <v>399</v>
-      </c>
-      <c r="F68" s="13">
-        <f>D68*E68</f>
-        <v>798</v>
-      </c>
-      <c r="G68" s="15"/>
-      <c r="I68" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>7</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9">
-        <f>F70</f>
-        <v>8384.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
-        <v>7.1</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14">
-        <f>SUM(F71:F75)</f>
-        <v>8384.5</v>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1032.5</v>
+      </c>
+      <c r="F70" s="13">
+        <f>D70*E70</f>
+        <v>1032.5</v>
       </c>
       <c r="G70" s="15"/>
+      <c r="I70" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="13">
-        <v>1032.5</v>
+        <v>1050</v>
       </c>
       <c r="F71" s="13">
         <f>D71*E71</f>
-        <v>3097.5</v>
+        <v>1050</v>
       </c>
       <c r="G71" s="15"/>
       <c r="I71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E72" s="13">
-        <v>1050</v>
+        <v>156</v>
       </c>
       <c r="F72" s="13">
         <f>D72*E72</f>
-        <v>1050</v>
+        <v>1092</v>
       </c>
       <c r="G72" s="15"/>
       <c r="I72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="12">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E73" s="13">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="F73" s="13">
         <f>D73*E73</f>
-        <v>1092</v>
+        <v>4500</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="I73" s="1" t="s">
-        <v>158</v>
+      <c r="I73" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="12">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E74" s="13">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F74" s="13">
         <f>D74*E74</f>
-        <v>2655</v>
+        <v>770</v>
       </c>
       <c r="G74" s="15"/>
       <c r="I74" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="A75" s="7">
+        <v>8</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9">
+        <f>F76</f>
+        <v>32565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14">
+        <f>SUM(F77:F79)</f>
+        <v>32565</v>
+      </c>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="12">
-        <v>7</v>
-      </c>
-      <c r="E75" s="13">
-        <v>70</v>
-      </c>
-      <c r="F75" s="13">
-        <f>D75*E75</f>
-        <v>490</v>
-      </c>
-      <c r="G75" s="15"/>
-      <c r="I75" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>8</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9">
-        <f>F77</f>
-        <v>28298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14">
-        <f>SUM(F78:F80)</f>
-        <v>28298</v>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13">
+        <v>10500</v>
+      </c>
+      <c r="F77" s="13">
+        <f>D77*E77</f>
+        <v>10500</v>
       </c>
       <c r="G77" s="15"/>
+      <c r="I77" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" s="13">
-        <v>10500</v>
+        <v>2399</v>
       </c>
       <c r="F78" s="13">
         <f>D78*E78</f>
-        <v>10500</v>
+        <v>7197</v>
       </c>
       <c r="G78" s="15"/>
-      <c r="I78" s="1" t="s">
-        <v>399</v>
+      <c r="I78" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="12">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E79" s="13">
-        <v>2399</v>
+        <v>265.5</v>
       </c>
       <c r="F79" s="13">
         <f>D79*E79</f>
-        <v>2399</v>
+        <v>14868</v>
       </c>
       <c r="G79" s="15"/>
       <c r="I79" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="A80" s="7">
+        <v>9</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9">
+        <f>F81</f>
+        <v>36350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14">
+        <f>SUM(F82:F88)</f>
+        <v>36350</v>
+      </c>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="12">
-        <v>58</v>
-      </c>
-      <c r="E80" s="13">
-        <v>265.5</v>
-      </c>
-      <c r="F80" s="13">
-        <f>D80*E80</f>
-        <v>15399</v>
-      </c>
-      <c r="G80" s="15"/>
-      <c r="I80" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>9</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9">
-        <f>F82</f>
-        <v>36350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
-        <v>9.1</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14">
-        <f>SUM(F83:F89)</f>
-        <v>36350</v>
+      <c r="D82" s="12">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13">
+        <v>12950</v>
+      </c>
+      <c r="F82" s="13">
+        <f>D82*E82</f>
+        <v>12950</v>
       </c>
       <c r="G82" s="15"/>
+      <c r="I82" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>25</v>
@@ -3695,63 +3895,60 @@
         <v>1</v>
       </c>
       <c r="E83" s="13">
-        <v>12950</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="13">
         <f>D83*E83</f>
-        <v>12950</v>
+        <v>1300</v>
       </c>
       <c r="G83" s="15"/>
-      <c r="I83" s="1" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="13">
-        <v>1300</v>
+        <v>3690</v>
       </c>
       <c r="F84" s="13">
         <f>D84*E84</f>
-        <v>1300</v>
+        <v>7380</v>
       </c>
       <c r="G84" s="15"/>
+      <c r="I84" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="13">
-        <v>3690</v>
+        <v>800</v>
       </c>
       <c r="F85" s="13">
-        <f>D85*E85</f>
-        <v>7380</v>
+        <f t="shared" ref="F85:F88" si="2">D85*E85</f>
+        <v>800</v>
       </c>
       <c r="G85" s="15"/>
-      <c r="I85" s="1" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
@@ -3764,14 +3961,14 @@
         <v>25</v>
       </c>
       <c r="D86" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="13">
-        <v>800</v>
+        <v>95</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" ref="F86:F89" si="2">D86*E86</f>
-        <v>800</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="G86" s="15"/>
     </row>
@@ -3779,7 +3976,7 @@
       <c r="A87" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C87" s="12" t="s">
@@ -3789,13 +3986,16 @@
         <v>2</v>
       </c>
       <c r="E87" s="13">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F87" s="13">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="G87" s="15"/>
+      <c r="I87" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
@@ -3808,216 +4008,219 @@
         <v>25</v>
       </c>
       <c r="D88" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88" s="13">
-        <v>45</v>
+        <v>2728</v>
       </c>
       <c r="F88" s="13">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>13640</v>
       </c>
       <c r="G88" s="15"/>
       <c r="I88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="7">
+        <v>10</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9">
+        <f>F90</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="14">
+        <f>SUM(F91:F91)</f>
+        <v>3600</v>
+      </c>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="12">
-        <v>5</v>
-      </c>
-      <c r="E89" s="13">
-        <v>2728</v>
-      </c>
-      <c r="F89" s="13">
-        <f t="shared" si="2"/>
-        <v>13640</v>
-      </c>
-      <c r="G89" s="15"/>
-      <c r="I89" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>10</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9">
-        <f>F91</f>
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
-        <v>10.1</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13">
+        <v>3600</v>
+      </c>
+      <c r="F91" s="13">
+        <f>D91*E91</f>
+        <v>3600</v>
+      </c>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>11</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14">
-        <f>SUM(F92:F93)</f>
-        <v>4900</v>
-      </c>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9">
+        <f>F93</f>
+        <v>16887</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14">
+        <f>SUM(F94:F94)</f>
+        <v>16887</v>
+      </c>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="12">
-        <v>1</v>
-      </c>
-      <c r="E92" s="13">
-        <v>3600</v>
-      </c>
-      <c r="F92" s="13">
-        <f>D92*E92</f>
-        <v>3600</v>
-      </c>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="D94" s="12">
+        <v>13</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1299</v>
+      </c>
+      <c r="F94" s="13">
+        <f>D94*E94</f>
+        <v>16887</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="I94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>12</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9">
+        <f>F96</f>
+        <v>7102.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="14">
+        <f>SUM(F97:F100)</f>
+        <v>7102.5</v>
+      </c>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="12">
-        <v>1</v>
-      </c>
-      <c r="E93" s="13">
-        <v>1300</v>
-      </c>
-      <c r="F93" s="13">
-        <f>D93*E93</f>
-        <v>1300</v>
-      </c>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>11</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9">
-        <f>F95</f>
-        <v>12990</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
-        <v>11.1</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="14">
-        <f>SUM(F96:F96)</f>
-        <v>12990</v>
-      </c>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="D97" s="12">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1643</v>
+      </c>
+      <c r="F97" s="13">
+        <f>D97*E97</f>
+        <v>1643</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="I97" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="12">
-        <v>10</v>
-      </c>
-      <c r="E96" s="13">
-        <v>1299</v>
-      </c>
-      <c r="F96" s="13">
-        <f>D96*E96</f>
-        <v>12990</v>
-      </c>
-      <c r="G96" s="15"/>
-      <c r="I96" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>12</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9">
-        <f>F98</f>
-        <v>7102.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="10">
-        <v>12.1</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="14">
-        <f>SUM(F99:F102)</f>
-        <v>7102.5</v>
+      <c r="D98" s="12">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13">
+        <v>661.5</v>
+      </c>
+      <c r="F98" s="13">
+        <f t="shared" ref="F98:F100" si="3">D98*E98</f>
+        <v>661.5</v>
       </c>
       <c r="G98" s="15"/>
+      <c r="I98" s="23" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>64</v>
+        <v>396</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>25</v>
@@ -4026,23 +4229,23 @@
         <v>1</v>
       </c>
       <c r="E99" s="13">
-        <v>1643</v>
+        <v>1499</v>
       </c>
       <c r="F99" s="13">
-        <f>D99*E99</f>
-        <v>1643</v>
+        <f t="shared" si="3"/>
+        <v>1499</v>
       </c>
       <c r="G99" s="15"/>
-      <c r="I99" s="1" t="s">
-        <v>158</v>
+      <c r="I99" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>25</v>
@@ -4051,181 +4254,181 @@
         <v>1</v>
       </c>
       <c r="E100" s="13">
-        <v>661.5</v>
+        <v>3299</v>
       </c>
       <c r="F100" s="13">
-        <f t="shared" ref="F100:F102" si="3">D100*E100</f>
-        <v>661.5</v>
+        <f t="shared" si="3"/>
+        <v>3299</v>
       </c>
       <c r="G100" s="15"/>
       <c r="I100" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="A101" s="7">
+        <v>13</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9">
+        <f>F102</f>
+        <v>11402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14">
+        <f>SUM(F103:F103)</f>
+        <v>11402</v>
+      </c>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="12">
-        <v>1</v>
-      </c>
-      <c r="E101" s="13">
-        <v>1499</v>
-      </c>
-      <c r="F101" s="13">
-        <f t="shared" si="3"/>
-        <v>1499</v>
-      </c>
-      <c r="G101" s="15"/>
-      <c r="I101" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C102" s="12" t="s">
+      <c r="D103" s="12">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13">
+        <v>11402</v>
+      </c>
+      <c r="F103" s="13">
+        <f>D103*E103</f>
+        <v>11402</v>
+      </c>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="12">
-        <v>1</v>
-      </c>
-      <c r="E102" s="13">
-        <v>3299</v>
-      </c>
-      <c r="F102" s="13">
-        <f t="shared" si="3"/>
-        <v>3299</v>
-      </c>
-      <c r="G102" s="15"/>
-      <c r="I102" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>13</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9">
-        <f>F104</f>
-        <v>11402</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
-        <v>13.1</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="14">
-        <f>SUM(F105:F105)</f>
-        <v>11402</v>
+      <c r="D104" s="12">
+        <v>3</v>
+      </c>
+      <c r="E104" s="13">
+        <v>2716</v>
+      </c>
+      <c r="F104" s="13">
+        <f>D104*E104</f>
+        <v>8148</v>
       </c>
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" s="12" t="s">
+      <c r="A105" s="7">
+        <v>14</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9">
+        <f>F106+F110</f>
+        <v>158246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="14">
+        <f>SUM(F107:F109)</f>
+        <v>105615</v>
+      </c>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="12">
-        <v>1</v>
-      </c>
-      <c r="E105" s="13">
-        <v>11402</v>
-      </c>
-      <c r="F105" s="13">
-        <f>D105*E105</f>
-        <v>11402</v>
-      </c>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="D107" s="12">
+        <v>45</v>
+      </c>
+      <c r="E107" s="13">
+        <v>439</v>
+      </c>
+      <c r="F107" s="13">
+        <f>D107*E107</f>
+        <v>19755</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="I107" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="12">
-        <v>3</v>
-      </c>
-      <c r="E106" s="13">
-        <v>2716</v>
-      </c>
-      <c r="F106" s="13">
-        <f>D106*E106</f>
-        <v>8148</v>
-      </c>
-      <c r="G106" s="15"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>14</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9">
-        <f>F108+F112</f>
-        <v>160646</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
-        <v>14.1</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="14">
-        <f>SUM(F109:F111)</f>
-        <v>105615</v>
+      <c r="D108" s="12">
+        <v>45</v>
+      </c>
+      <c r="E108" s="13">
+        <v>1769</v>
+      </c>
+      <c r="F108" s="13">
+        <f>D108*E108</f>
+        <v>79605</v>
       </c>
       <c r="G108" s="15"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>25</v>
@@ -4234,171 +4437,166 @@
         <v>45</v>
       </c>
       <c r="E109" s="13">
-        <v>439</v>
+        <v>139</v>
       </c>
       <c r="F109" s="13">
         <f>D109*E109</f>
-        <v>19755</v>
+        <v>6255</v>
       </c>
       <c r="G109" s="15"/>
       <c r="I109" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="12">
-        <v>45</v>
-      </c>
-      <c r="E110" s="13">
-        <v>1769</v>
-      </c>
-      <c r="F110" s="13">
-        <f>D110*E110</f>
-        <v>79605</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>14.2</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="14">
+        <f>SUM(F111:F112)</f>
+        <v>52631</v>
       </c>
       <c r="G110" s="15"/>
-      <c r="I110" s="23" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="111" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="12">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E111" s="13">
-        <v>139</v>
+        <v>45000</v>
       </c>
       <c r="F111" s="13">
         <f>D111*E111</f>
-        <v>6255</v>
+        <v>45000</v>
       </c>
       <c r="G111" s="15"/>
       <c r="I111" s="23" t="s">
-        <v>158</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
-        <v>14.2</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="14">
-        <f>SUM(F113:F114)</f>
-        <v>55031</v>
+      <c r="A112" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="12">
+        <v>1</v>
+      </c>
+      <c r="E112" s="13">
+        <f>5031+2600</f>
+        <v>7631</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" ref="F112" si="4">D112*E112</f>
+        <v>7631</v>
       </c>
       <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C113" s="12" t="s">
+      <c r="I112" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>15</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9">
+        <f>F114+F119</f>
+        <v>34380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="14">
+        <f>SUM(F115:F118)</f>
+        <v>32230</v>
+      </c>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="12">
-        <v>1</v>
-      </c>
-      <c r="E113" s="13">
-        <v>50000</v>
-      </c>
-      <c r="F113" s="13">
-        <f>D113*E113</f>
-        <v>50000</v>
-      </c>
-      <c r="G113" s="15"/>
-      <c r="I113" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C114" s="12" t="s">
+      <c r="D115" s="12">
+        <v>1</v>
+      </c>
+      <c r="E115" s="13">
+        <v>6200</v>
+      </c>
+      <c r="F115" s="13">
+        <f>D115*E115</f>
+        <v>6200</v>
+      </c>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="12">
-        <v>1</v>
-      </c>
-      <c r="E114" s="13">
-        <v>5031</v>
-      </c>
-      <c r="F114" s="13">
-        <f t="shared" ref="F114" si="4">D114*E114</f>
-        <v>5031</v>
-      </c>
-      <c r="G114" s="15"/>
-      <c r="I114" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
-        <v>15</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9">
-        <f>F116+F121</f>
-        <v>34380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
-        <v>15.1</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="14">
-        <f>SUM(F117:F120)</f>
-        <v>32230</v>
+      <c r="D116" s="12">
+        <v>1</v>
+      </c>
+      <c r="E116" s="13">
+        <v>13900</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" ref="F116:F120" si="5">D116*E116</f>
+        <v>13900</v>
       </c>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>25</v>
@@ -4407,193 +4605,199 @@
         <v>1</v>
       </c>
       <c r="E117" s="13">
-        <v>6200</v>
+        <v>8530</v>
       </c>
       <c r="F117" s="13">
-        <f>D117*E117</f>
-        <v>6200</v>
+        <f t="shared" si="5"/>
+        <v>8530</v>
       </c>
       <c r="G117" s="15"/>
+      <c r="I117" s="23" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="118" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" s="13">
-        <v>13900</v>
+        <v>1800</v>
       </c>
       <c r="F118" s="13">
-        <f t="shared" ref="F118:F122" si="5">D118*E118</f>
-        <v>13900</v>
+        <f t="shared" si="5"/>
+        <v>3600</v>
       </c>
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="12">
-        <v>1</v>
-      </c>
-      <c r="E119" s="13">
-        <v>8530</v>
-      </c>
-      <c r="F119" s="13">
-        <f t="shared" si="5"/>
-        <v>8530</v>
+      <c r="A119" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="14">
+        <f>SUM(F120:F120)</f>
+        <v>2150</v>
       </c>
       <c r="G119" s="15"/>
-      <c r="I119" s="23" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="120" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120" s="13">
-        <v>1800</v>
+        <v>2150</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="5"/>
-        <v>3600</v>
+        <v>2150</v>
       </c>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10">
-        <v>15.2</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="14">
-        <f>SUM(F122:F122)</f>
-        <v>2150</v>
-      </c>
-      <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C122" s="12" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>16</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9">
+        <f>F122+F124</f>
+        <v>290032</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14">
+        <f>SUM(F123)</f>
+        <v>479</v>
+      </c>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="12">
-        <v>1</v>
-      </c>
-      <c r="E122" s="13">
-        <v>2150</v>
-      </c>
-      <c r="F122" s="13">
-        <f t="shared" si="5"/>
-        <v>2150</v>
-      </c>
-      <c r="G122" s="15"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
-        <v>16</v>
-      </c>
-      <c r="B123" s="8" t="s">
+      <c r="D123" s="12">
+        <v>1</v>
+      </c>
+      <c r="E123" s="13">
+        <v>479</v>
+      </c>
+      <c r="F123" s="13">
+        <f t="shared" ref="F123:F128" si="6">D123*E123</f>
+        <v>479</v>
+      </c>
+      <c r="G123" s="15"/>
+      <c r="I123" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9">
-        <f>F124+F126</f>
-        <v>290032</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14">
-        <f>SUM(F125)</f>
-        <v>479</v>
+        <f>SUM(F125:F128)</f>
+        <v>289553</v>
       </c>
       <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="12">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E125" s="13">
-        <v>479</v>
+        <v>4705</v>
       </c>
       <c r="F125" s="13">
-        <f t="shared" ref="F125:F130" si="6">D125*E125</f>
-        <v>479</v>
+        <f t="shared" si="6"/>
+        <v>202315</v>
       </c>
       <c r="G125" s="15"/>
       <c r="I125" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10">
-        <v>16.2</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14">
-        <f>SUM(F127:F130)</f>
-        <v>289553</v>
-      </c>
-      <c r="G126" s="11"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="12">
+        <v>2</v>
+      </c>
+      <c r="E126" s="13">
+        <v>3299</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" si="6"/>
+        <v>6598</v>
+      </c>
+      <c r="G126" s="15"/>
+      <c r="I126" s="23" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="127" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
@@ -4609,15 +4813,15 @@
         <v>43</v>
       </c>
       <c r="E127" s="13">
-        <v>4705</v>
+        <v>1560</v>
       </c>
       <c r="F127" s="13">
         <f t="shared" si="6"/>
-        <v>202315</v>
+        <v>67080</v>
       </c>
       <c r="G127" s="15"/>
       <c r="I127" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4625,7 +4829,7 @@
         <v>407</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>25</v>
@@ -4634,102 +4838,289 @@
         <v>2</v>
       </c>
       <c r="E128" s="13">
-        <v>3299</v>
+        <v>6780</v>
       </c>
       <c r="F128" s="13">
         <f t="shared" si="6"/>
-        <v>6598</v>
+        <v>13560</v>
       </c>
       <c r="G128" s="15"/>
       <c r="I128" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C129" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>17</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="9">
+        <f>F130</f>
+        <v>731.37600000000009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="14">
+        <f>SUM(F131:F135)</f>
+        <v>731.37600000000009</v>
+      </c>
+      <c r="G130" s="15"/>
+    </row>
+    <row r="131" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D131" s="12">
+        <v>24</v>
+      </c>
+      <c r="E131" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="F131" s="13">
+        <f t="shared" ref="F131:F139" si="7">D131*E131</f>
+        <v>106.80000000000001</v>
+      </c>
+      <c r="G131" s="15"/>
+    </row>
+    <row r="132" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E132" s="13">
+        <v>43.56</v>
+      </c>
+      <c r="F132" s="13">
+        <f t="shared" si="7"/>
+        <v>104.544</v>
+      </c>
+      <c r="G132" s="15"/>
+    </row>
+    <row r="133" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D133" s="12">
+        <v>12</v>
+      </c>
+      <c r="E133" s="13">
+        <v>32.64</v>
+      </c>
+      <c r="F133" s="13">
+        <f t="shared" si="7"/>
+        <v>391.68</v>
+      </c>
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D134" s="12">
+        <v>24</v>
+      </c>
+      <c r="E134" s="13">
+        <v>3.18</v>
+      </c>
+      <c r="F134" s="13">
+        <f t="shared" si="7"/>
+        <v>76.320000000000007</v>
+      </c>
+      <c r="G134" s="15"/>
+    </row>
+    <row r="135" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D135" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E135" s="13">
+        <v>21.68</v>
+      </c>
+      <c r="F135" s="13">
+        <f t="shared" si="7"/>
+        <v>52.031999999999996</v>
+      </c>
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>18</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="9">
+        <f>F137</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="17">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="12">
-        <v>43</v>
-      </c>
-      <c r="E129" s="13">
-        <v>1560</v>
-      </c>
-      <c r="F129" s="13">
-        <f t="shared" si="6"/>
-        <v>67080</v>
-      </c>
-      <c r="G129" s="15"/>
-      <c r="I129" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="12">
+      <c r="D137" s="17">
+        <v>4</v>
+      </c>
+      <c r="E137" s="19">
+        <v>500</v>
+      </c>
+      <c r="F137" s="13">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>19</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9">
+        <f>F139</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D139" s="17">
+        <v>1</v>
+      </c>
+      <c r="E139" s="19">
+        <v>5900</v>
+      </c>
+      <c r="F139" s="13">
+        <f t="shared" si="7"/>
+        <v>5900</v>
+      </c>
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="17"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="16">
+        <f>G7+G31+G36+G46+G54+G60+G68+G75+G80+G89+G92+G95+G101+G105+G113+G121+G129+G136+G138</f>
+        <v>871376.87600000005</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F148" s="1">
         <v>2</v>
       </c>
-      <c r="E130" s="13">
-        <v>6780</v>
-      </c>
-      <c r="F130" s="13">
-        <f t="shared" si="6"/>
-        <v>13560</v>
-      </c>
-      <c r="G130" s="15"/>
-      <c r="I130" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="18"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="18"/>
-    </row>
-    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A134" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="16">
-        <f>G7+G31+G36+G46+G55+G61+G69+G76+G81+G90+G94+G97+G103+G107+G115+G123</f>
-        <v>847989.9</v>
+      <c r="G148" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="1">
+        <v>24</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="1">
+        <f>F149/F148</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A142:F142"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
@@ -4744,70 +5135,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="40.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.109375" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.44140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F2" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I2" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="M2" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4815,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="28">
         <v>17</v>
@@ -4854,10 +5245,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D4" s="28">
         <v>13.5</v>
@@ -4893,10 +5284,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" s="28">
         <v>15</v>
@@ -4932,10 +5323,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D6" s="28">
         <v>23</v>
@@ -4971,10 +5362,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" s="28">
         <v>15</v>
@@ -5010,10 +5401,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D8" s="28">
         <v>13.5</v>
@@ -5049,10 +5440,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="28">
         <v>17</v>
@@ -5088,10 +5479,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="28">
         <v>17</v>
@@ -5127,10 +5518,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D11" s="28">
         <v>13.5</v>
@@ -5166,10 +5557,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" s="28">
         <v>23</v>
@@ -5205,10 +5596,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D13" s="28">
         <v>13.5</v>
@@ -5244,10 +5635,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14" s="28">
         <v>16</v>
@@ -5283,10 +5674,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D15" s="28">
         <v>15</v>
@@ -5322,7 +5713,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="28">
         <v>10</v>
@@ -5358,10 +5749,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D17" s="28">
         <v>12</v>
@@ -5397,10 +5788,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D18" s="28">
         <v>9</v>
@@ -5436,10 +5827,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D19" s="28">
         <v>9</v>
@@ -5475,10 +5866,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D20" s="28">
         <v>5</v>
@@ -5514,10 +5905,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="28">
         <v>5</v>
@@ -5553,10 +5944,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="28">
         <v>9</v>
@@ -5592,10 +5983,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D23" s="28">
         <v>134.55000000000001</v>
@@ -5633,10 +6024,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D24" s="28">
         <v>6</v>
@@ -5672,10 +6063,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D25" s="28">
         <v>5</v>
@@ -5711,10 +6102,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D26" s="28">
         <v>15</v>
@@ -5750,10 +6141,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" s="28">
         <v>5</v>
@@ -5789,10 +6180,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D28" s="28">
         <v>4</v>
@@ -5828,10 +6219,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D29" s="28">
         <v>4</v>
@@ -5867,10 +6258,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D30" s="28">
         <v>13.5</v>
@@ -5906,10 +6297,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D31" s="28">
         <v>12</v>
@@ -5947,10 +6338,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="28">
         <v>8</v>
@@ -5986,10 +6377,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D33" s="28">
         <v>6</v>
@@ -6025,10 +6416,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D34" s="28">
         <v>3</v>
@@ -6064,10 +6455,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D35" s="28">
         <v>2.5</v>
@@ -6103,10 +6494,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" s="28">
         <v>2.5</v>
@@ -6142,10 +6533,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D37" s="28">
         <v>4</v>
@@ -6181,10 +6572,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D38" s="28">
         <v>3</v>
@@ -6220,10 +6611,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D39" s="28">
         <v>0</v>
@@ -6254,45 +6645,45 @@
       </c>
       <c r="M39" s="36"/>
       <c r="N39" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D40" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F40" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G40" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I40" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="K40" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K40" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="M40" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -6300,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D41" s="28">
         <v>5</v>
@@ -6339,10 +6730,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D42" s="28">
         <v>10</v>
@@ -6378,10 +6769,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D43" s="28">
         <v>18</v>
@@ -6417,10 +6808,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D44" s="28">
         <v>12</v>
@@ -6458,10 +6849,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D45" s="28">
         <v>3</v>
@@ -6497,10 +6888,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" s="28">
         <v>2.5</v>
@@ -6536,10 +6927,10 @@
         <v>7</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D47" s="28">
         <v>9</v>
@@ -6575,10 +6966,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D48" s="28">
         <v>15</v>
@@ -6614,10 +7005,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="28">
         <v>8</v>
@@ -6653,10 +7044,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D50" s="28">
         <v>1.5</v>
@@ -6692,10 +7083,10 @@
         <v>11</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" s="28">
         <v>4.5</v>
@@ -6731,10 +7122,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D52" s="28">
         <v>4.5</v>
@@ -6770,10 +7161,10 @@
         <v>13</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D53" s="28">
         <v>3</v>
@@ -6809,10 +7200,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D54" s="28">
         <v>4</v>
@@ -6848,10 +7239,10 @@
         <v>15</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D55" s="28">
         <v>4</v>
@@ -6884,37 +7275,37 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D56" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F56" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I56" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="K56" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L56" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K56" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L56" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M56" s="29"/>
     </row>
@@ -6923,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D57" s="28">
         <v>15</v>
@@ -6962,10 +7353,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D58" s="28">
         <v>24</v>
@@ -7001,10 +7392,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D59" s="28">
         <v>30</v>
@@ -7040,10 +7431,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D60" s="28">
         <v>12</v>
@@ -7079,10 +7470,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D61" s="28">
         <v>16</v>
@@ -7115,37 +7506,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D62" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F62" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G62" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H62" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I62" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="K62" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L62" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K62" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M62" s="29"/>
     </row>
@@ -7154,10 +7545,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D63" s="28">
         <v>18</v>
@@ -7193,10 +7584,10 @@
         <v>2</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D64" s="28">
         <v>6</v>
@@ -7229,37 +7620,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B65" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D65" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F65" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G65" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H65" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I65" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="K65" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L65" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M65" s="29"/>
     </row>
@@ -7268,10 +7659,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D66" s="28">
         <v>18</v>
@@ -7307,10 +7698,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D67" s="28">
         <v>18</v>
@@ -7346,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D68" s="28">
         <v>22</v>
@@ -7385,10 +7776,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" s="28">
         <v>4</v>
@@ -7421,37 +7812,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D70" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F70" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G70" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H70" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H70" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I70" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J70" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="K70" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L70" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L70" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M70" s="29"/>
     </row>
@@ -7460,10 +7851,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D71" s="28">
         <v>30</v>
@@ -7499,10 +7890,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D72" s="28">
         <v>30</v>
@@ -7538,10 +7929,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D73" s="28">
         <v>30</v>
@@ -7577,10 +7968,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D74" s="28">
         <v>18</v>
@@ -7616,10 +8007,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D75" s="28">
         <v>12</v>
@@ -7655,10 +8046,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D76" s="28">
         <v>4</v>
@@ -7694,10 +8085,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D77" s="28">
         <v>12</v>
@@ -7733,10 +8124,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D78" s="28">
         <v>12</v>
@@ -7772,10 +8163,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D79" s="28">
         <v>3</v>
@@ -7811,10 +8202,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D80" s="28">
         <v>9</v>
@@ -7850,10 +8241,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D81" s="28">
         <v>4</v>
@@ -7889,10 +8280,10 @@
         <v>12</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D82" s="28">
         <v>3</v>
@@ -7928,10 +8319,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83" s="28">
         <v>6</v>
@@ -7967,10 +8358,10 @@
         <v>14</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D84" s="28">
         <v>6</v>
@@ -8006,10 +8397,10 @@
         <v>15</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D85" s="28">
         <v>6</v>
@@ -8045,10 +8436,10 @@
         <v>16</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D86" s="28">
         <v>4</v>
@@ -8084,10 +8475,10 @@
         <v>17</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D87" s="28">
         <v>5</v>
@@ -8123,10 +8514,10 @@
         <v>18</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D88" s="28">
         <v>3</v>
@@ -8162,10 +8553,10 @@
         <v>19</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D89" s="28">
         <v>3</v>
@@ -8196,42 +8587,42 @@
       </c>
       <c r="M89" s="36"/>
       <c r="N89" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B90" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D90" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F90" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G90" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H90" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H90" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I90" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J90" s="29" t="s">
+      <c r="K90" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L90" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K90" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L90" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M90" s="29"/>
     </row>
@@ -8240,10 +8631,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D91" s="28">
         <v>18</v>
@@ -8274,7 +8665,7 @@
       </c>
       <c r="M91" s="36"/>
       <c r="N91" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -8282,10 +8673,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D92" s="28">
         <v>18</v>
@@ -8316,7 +8707,7 @@
       </c>
       <c r="M92" s="36"/>
       <c r="N92" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -8324,10 +8715,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D93" s="28">
         <v>18</v>
@@ -8358,7 +8749,7 @@
       </c>
       <c r="M93" s="36"/>
       <c r="N93" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -8366,10 +8757,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D94" s="28">
         <v>18</v>
@@ -8400,7 +8791,7 @@
       </c>
       <c r="M94" s="36"/>
       <c r="N94" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -8408,10 +8799,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D95" s="28">
         <v>6</v>
@@ -8447,10 +8838,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" s="28">
         <v>15</v>
@@ -8481,7 +8872,7 @@
       </c>
       <c r="M96" s="36"/>
       <c r="N96" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -8489,10 +8880,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D97" s="28">
         <v>16</v>
@@ -8528,10 +8919,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D98" s="28">
         <v>5</v>
@@ -8567,10 +8958,10 @@
         <v>9</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D99" s="28">
         <v>4</v>
@@ -8606,10 +8997,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D100" s="28">
         <v>4</v>
@@ -8645,10 +9036,10 @@
         <v>11</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D101" s="28">
         <v>4</v>
@@ -8684,10 +9075,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D102" s="28">
         <v>4</v>
@@ -8723,10 +9114,10 @@
         <v>13</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D103" s="28">
         <v>0</v>
@@ -8757,42 +9148,42 @@
       </c>
       <c r="M103" s="36"/>
       <c r="N103" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B104" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D104" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E104" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F104" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G104" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H104" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I104" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J104" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J104" s="29" t="s">
+      <c r="K104" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L104" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K104" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L104" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M104" s="29"/>
     </row>
@@ -8801,10 +9192,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D105" s="28">
         <v>20</v>
@@ -8840,10 +9231,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D106" s="28">
         <v>16</v>
@@ -8879,10 +9270,10 @@
         <v>3</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D107" s="28">
         <v>2</v>
@@ -8918,10 +9309,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D108" s="28">
         <v>12</v>
@@ -8957,10 +9348,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D109" s="28">
         <v>0</v>
@@ -8991,7 +9382,7 @@
       </c>
       <c r="M109" s="36"/>
       <c r="N109" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -8999,10 +9390,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D110" s="28">
         <v>0</v>
@@ -9033,42 +9424,42 @@
       </c>
       <c r="M110" s="36"/>
       <c r="N110" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D111" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E111" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F111" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G111" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H111" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H111" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I111" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J111" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J111" s="29" t="s">
+      <c r="K111" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L111" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K111" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L111" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M111" s="29"/>
     </row>
@@ -9077,10 +9468,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D112" s="28">
         <v>8.5</v>
@@ -9116,10 +9507,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D113" s="28">
         <v>6</v>
@@ -9155,10 +9546,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D114" s="28">
         <v>8.5</v>
@@ -9194,10 +9585,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D115" s="28">
         <v>8.5</v>
@@ -9233,10 +9624,10 @@
         <v>5</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D116" s="28">
         <v>5</v>
@@ -9272,10 +9663,10 @@
         <v>6</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D117" s="28">
         <v>0</v>
@@ -9306,7 +9697,7 @@
       </c>
       <c r="M117" s="36"/>
       <c r="N117" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -9314,10 +9705,10 @@
         <v>7</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D118" s="28">
         <v>0</v>
@@ -9348,42 +9739,42 @@
       </c>
       <c r="M118" s="36"/>
       <c r="N118" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B119" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D119" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E119" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F119" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G119" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H119" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H119" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I119" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J119" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J119" s="29" t="s">
+      <c r="K119" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L119" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K119" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L119" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M119" s="29"/>
     </row>
@@ -9392,10 +9783,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D120" s="28">
         <v>15</v>
@@ -9431,10 +9822,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D121" s="28">
         <v>0</v>
@@ -9465,7 +9856,7 @@
       </c>
       <c r="M121" s="36"/>
       <c r="N121" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -9473,10 +9864,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D122" s="28">
         <v>15</v>
@@ -9512,10 +9903,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D123" s="28">
         <v>15</v>
@@ -9551,10 +9942,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D124" s="28">
         <v>24</v>
@@ -9590,10 +9981,10 @@
         <v>6</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" s="28">
         <v>10</v>
@@ -9629,10 +10020,10 @@
         <v>7</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D126" s="28">
         <v>3.5</v>
@@ -9668,10 +10059,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D127" s="28">
         <v>3</v>
@@ -9707,10 +10098,10 @@
         <v>9</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D128" s="28">
         <v>4</v>
@@ -9746,10 +10137,10 @@
         <v>10</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D129" s="28">
         <v>4</v>
@@ -9782,37 +10173,37 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B130" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E130" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F130" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G130" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H130" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I130" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J130" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J130" s="29" t="s">
+      <c r="K130" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L130" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K130" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L130" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M130" s="29"/>
     </row>
@@ -9821,10 +10212,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D131" s="28">
         <v>12</v>
@@ -9860,10 +10251,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D132" s="28">
         <v>3</v>
@@ -9899,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D133" s="28">
         <v>14</v>
@@ -9938,10 +10329,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D134" s="28">
         <v>9</v>
@@ -9977,10 +10368,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D135" s="28">
         <v>9</v>
@@ -10016,10 +10407,10 @@
         <v>6</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D136" s="28">
         <v>0</v>
@@ -10050,42 +10441,42 @@
       </c>
       <c r="M136" s="36"/>
       <c r="N136" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B137" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D137" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E137" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F137" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G137" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H137" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H137" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I137" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J137" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J137" s="29" t="s">
+      <c r="K137" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L137" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K137" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L137" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M137" s="29"/>
     </row>
@@ -10094,10 +10485,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D138" s="28">
         <v>20</v>
@@ -10133,10 +10524,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D139" s="28">
         <v>20</v>
@@ -10172,10 +10563,10 @@
         <v>3</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D140" s="28">
         <v>15</v>
@@ -10208,46 +10599,46 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D141" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F141" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G141" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H141" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H141" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I141" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J141" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J141" s="29" t="s">
+      <c r="K141" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L141" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K141" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L141" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M141" s="29"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B142" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D142" s="28">
         <v>0</v>
@@ -10280,10 +10671,10 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B143" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" s="28">
         <v>0</v>
@@ -10316,10 +10707,10 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B144" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D144" s="28">
         <v>0</v>
@@ -10355,10 +10746,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D145" s="28">
         <v>15</v>
@@ -10394,10 +10785,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146" s="28">
         <v>0</v>
@@ -10428,7 +10819,7 @@
       </c>
       <c r="M146" s="36"/>
       <c r="N146" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -10436,10 +10827,10 @@
         <v>3</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D147" s="28">
         <v>20</v>
@@ -10475,10 +10866,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D148" s="28">
         <v>18</v>
@@ -10514,10 +10905,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D149" s="28">
         <v>10</v>
@@ -10553,10 +10944,10 @@
         <v>6</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" s="28">
         <v>0</v>
@@ -10592,10 +10983,10 @@
         <v>7</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D151" s="28">
         <v>0</v>
@@ -10631,10 +11022,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D152" s="28">
         <v>0</v>
@@ -10670,10 +11061,10 @@
         <v>9</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D153" s="28">
         <v>0</v>
@@ -10704,42 +11095,42 @@
       </c>
       <c r="M153" s="36"/>
       <c r="N153" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B154" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D154" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E154" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F154" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G154" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H154" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H154" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I154" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J154" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J154" s="29" t="s">
+      <c r="K154" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L154" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K154" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L154" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M154" s="29"/>
     </row>
@@ -10748,10 +11139,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D155" s="28">
         <v>30</v>
@@ -10784,37 +11175,37 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B156" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D156" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E156" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F156" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G156" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H156" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H156" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I156" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J156" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J156" s="29" t="s">
+      <c r="K156" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L156" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K156" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L156" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M156" s="29"/>
     </row>
@@ -10823,10 +11214,10 @@
         <v>1</v>
       </c>
       <c r="B157" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D157" s="28">
         <v>8</v>
@@ -10862,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D158" s="28">
         <v>6</v>
@@ -10898,37 +11289,37 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B159" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D159" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E159" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E159" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F159" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G159" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H159" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H159" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I159" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J159" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J159" s="29" t="s">
+      <c r="K159" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L159" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K159" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L159" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M159" s="29"/>
     </row>
@@ -10937,10 +11328,10 @@
         <v>1</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D160" s="28">
         <v>20</v>
@@ -10976,10 +11367,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D161" s="28">
         <v>8</v>
@@ -11015,10 +11406,10 @@
         <v>3</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D162" s="28">
         <v>10</v>
@@ -11051,37 +11442,37 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B163" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D163" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E163" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E163" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F163" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G163" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H163" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H163" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I163" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J163" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J163" s="29" t="s">
+      <c r="K163" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L163" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K163" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L163" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M163" s="29"/>
     </row>
@@ -11090,10 +11481,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F164" s="28">
         <v>1</v>
@@ -11123,10 +11514,10 @@
         <v>2</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F165" s="28">
         <v>1</v>
@@ -11156,10 +11547,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F166" s="28">
         <v>0</v>
@@ -11189,10 +11580,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F167" s="28">
         <v>0</v>
@@ -11222,10 +11613,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F168" s="28">
         <v>0</v>
@@ -11255,10 +11646,10 @@
         <v>6</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F169" s="28">
         <v>0</v>
@@ -11288,10 +11679,10 @@
         <v>7</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F170" s="28">
         <v>0</v>
@@ -11318,37 +11709,37 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B171" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D171" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E171" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F171" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G171" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H171" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H171" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I171" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J171" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J171" s="29" t="s">
+      <c r="K171" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L171" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K171" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L171" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M171" s="29"/>
     </row>
@@ -11357,10 +11748,10 @@
         <v>1</v>
       </c>
       <c r="B172" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F172" s="28">
         <v>0</v>
@@ -11390,10 +11781,10 @@
         <v>2</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F173" s="28">
         <v>0</v>
@@ -11423,10 +11814,10 @@
         <v>3</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F174" s="28">
         <v>0</v>
@@ -11453,37 +11844,37 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B175" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D175" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E175" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F175" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G175" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H175" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H175" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I175" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J175" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J175" s="29" t="s">
+      <c r="K175" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L175" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K175" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L175" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M175" s="29"/>
     </row>
@@ -11492,10 +11883,10 @@
         <v>1</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F176" s="28">
         <v>1</v>
@@ -11525,10 +11916,10 @@
         <v>2</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
@@ -11558,10 +11949,10 @@
         <v>3</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F178" s="28">
         <v>0</v>
@@ -11591,10 +11982,10 @@
         <v>4</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F179" s="28">
         <v>0</v>
@@ -11624,10 +12015,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F180" s="28">
         <v>0</v>
@@ -11657,10 +12048,10 @@
         <v>6</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F181" s="28">
         <v>0</v>
@@ -11687,40 +12078,40 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B182" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D182" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E182" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F182" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G182" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H182" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H182" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I182" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J182" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J182" s="29" t="s">
+      <c r="K182" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L182" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K182" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L182" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="M182" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -11728,10 +12119,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D183" s="28">
         <v>72</v>
@@ -11769,10 +12160,10 @@
         <v>2</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D184" s="28">
         <v>12</v>
@@ -11805,40 +12196,40 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B185" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D185" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E185" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F185" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G185" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H185" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H185" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I185" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J185" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J185" s="29" t="s">
+      <c r="K185" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L185" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K185" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L185" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="M185" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N185" s="25"/>
     </row>
@@ -11847,10 +12238,10 @@
         <v>1</v>
       </c>
       <c r="B186" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D186" s="28">
         <v>0</v>
@@ -11882,17 +12273,17 @@
       <c r="M186" s="36">
         <v>1</v>
       </c>
-      <c r="N186" s="41"/>
+      <c r="N186" s="42"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="24">
         <v>2</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D187" s="28">
         <v>0</v>
@@ -11922,17 +12313,17 @@
         <v>0</v>
       </c>
       <c r="M187" s="36"/>
-      <c r="N187" s="41"/>
+      <c r="N187" s="42"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="24">
         <v>3</v>
       </c>
       <c r="B188" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D188" s="28">
         <v>0</v>
@@ -11962,17 +12353,17 @@
         <v>0</v>
       </c>
       <c r="M188" s="36"/>
-      <c r="N188" s="41"/>
+      <c r="N188" s="42"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="24">
         <v>4</v>
       </c>
       <c r="B189" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D189" s="28">
         <v>0</v>
@@ -12002,17 +12393,17 @@
         <v>0</v>
       </c>
       <c r="M189" s="36"/>
-      <c r="N189" s="41"/>
+      <c r="N189" s="42"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="24">
         <v>5</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D190" s="28">
         <v>0</v>
@@ -12042,17 +12433,17 @@
         <v>0</v>
       </c>
       <c r="M190" s="36"/>
-      <c r="N190" s="41"/>
+      <c r="N190" s="42"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="24">
         <v>6</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D191" s="28">
         <v>0</v>
@@ -12082,17 +12473,17 @@
         <v>0</v>
       </c>
       <c r="M191" s="36"/>
-      <c r="N191" s="41"/>
+      <c r="N191" s="42"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="24">
         <v>7</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D192" s="28">
         <v>0</v>
@@ -12122,17 +12513,17 @@
         <v>0</v>
       </c>
       <c r="M192" s="36"/>
-      <c r="N192" s="41"/>
+      <c r="N192" s="42"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="24">
         <v>8</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D193" s="28">
         <v>0</v>
@@ -12162,17 +12553,17 @@
         <v>0</v>
       </c>
       <c r="M193" s="36"/>
-      <c r="N193" s="41"/>
+      <c r="N193" s="42"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="24">
         <v>9</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D194" s="28">
         <v>0</v>
@@ -12202,44 +12593,44 @@
         <v>0</v>
       </c>
       <c r="M194" s="36"/>
-      <c r="N194" s="41"/>
+      <c r="N194" s="42"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B195" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D195" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E195" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F195" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G195" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H195" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H195" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I195" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J195" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J195" s="29" t="s">
+      <c r="K195" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L195" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K195" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L195" s="29" t="s">
-        <v>197</v>
-      </c>
       <c r="M195" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N195" s="25"/>
     </row>
@@ -12248,10 +12639,10 @@
         <v>1</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C196" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D196" s="28">
         <v>0</v>
@@ -12283,17 +12674,17 @@
       <c r="M196" s="36">
         <v>1</v>
       </c>
-      <c r="N196" s="41"/>
+      <c r="N196" s="42"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="24">
         <v>2</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C197" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D197" s="28">
         <v>0</v>
@@ -12323,17 +12714,17 @@
         <v>0</v>
       </c>
       <c r="M197" s="36"/>
-      <c r="N197" s="41"/>
+      <c r="N197" s="42"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="24">
         <v>3</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D198" s="28">
         <v>0</v>
@@ -12363,17 +12754,17 @@
         <v>0</v>
       </c>
       <c r="M198" s="36"/>
-      <c r="N198" s="41"/>
+      <c r="N198" s="42"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="24">
         <v>4</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D199" s="28">
         <v>0</v>
@@ -12403,17 +12794,17 @@
         <v>0</v>
       </c>
       <c r="M199" s="36"/>
-      <c r="N199" s="41"/>
+      <c r="N199" s="42"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="24">
         <v>5</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D200" s="28">
         <v>0</v>
@@ -12443,17 +12834,17 @@
         <v>0</v>
       </c>
       <c r="M200" s="36"/>
-      <c r="N200" s="41"/>
+      <c r="N200" s="42"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="24">
         <v>6</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D201" s="28">
         <v>0</v>
@@ -12483,41 +12874,41 @@
         <v>0</v>
       </c>
       <c r="M201" s="36"/>
-      <c r="N201" s="41"/>
+      <c r="N201" s="42"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B202" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D202" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E202" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E202" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F202" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G202" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H202" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H202" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I202" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J202" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J202" s="29" t="s">
+      <c r="K202" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L202" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K202" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L202" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M202" s="29"/>
     </row>
@@ -12526,10 +12917,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D203" s="28">
         <v>0</v>
@@ -12565,10 +12956,10 @@
         <v>2</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D204" s="28">
         <v>0</v>
@@ -12604,10 +12995,10 @@
         <v>3</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D205" s="28">
         <v>0</v>
@@ -12640,37 +13031,37 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B206" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D206" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E206" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E206" s="29" t="s">
-        <v>184</v>
-      </c>
       <c r="F206" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G206" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H206" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H206" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="I206" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="J206" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J206" s="29" t="s">
+      <c r="K206" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="L206" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="K206" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="L206" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="M206" s="29"/>
     </row>
@@ -12679,10 +13070,10 @@
         <v>1</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D207" s="28">
         <v>0</v>
@@ -12718,7 +13109,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D208" s="28">
         <v>0</v>
@@ -12754,7 +13145,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D209" s="28">
         <v>0</v>
@@ -12790,7 +13181,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D210" s="28">
         <v>0</v>
@@ -12826,7 +13217,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D211" s="28">
         <v>0</v>
@@ -12862,7 +13253,7 @@
         <v>6</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D212" s="28">
         <v>0</v>
@@ -12898,10 +13289,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D213" s="28">
         <v>0</v>
@@ -12937,7 +13328,7 @@
         <v>8</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D214" s="28">
         <v>0</v>
@@ -12973,7 +13364,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D215" s="28">
         <v>0</v>
@@ -13043,4 +13434,593 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.77734375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" style="44" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" style="44" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.21875" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" style="44" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.5546875" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C1" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="44">
+        <v>6</v>
+      </c>
+      <c r="D3" s="44">
+        <v>24</v>
+      </c>
+      <c r="E3" s="44">
+        <v>34</v>
+      </c>
+      <c r="F3" s="44">
+        <f>(24*Q3)+(48*R3)</f>
+        <v>48</v>
+      </c>
+      <c r="G3" s="44">
+        <v>11</v>
+      </c>
+      <c r="H3" s="44">
+        <v>10</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="44">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44">
+        <v>1</v>
+      </c>
+      <c r="L3" s="44">
+        <v>22</v>
+      </c>
+      <c r="M3" s="44">
+        <v>3</v>
+      </c>
+      <c r="N3" s="44">
+        <v>1</v>
+      </c>
+      <c r="O3" s="44">
+        <v>4</v>
+      </c>
+      <c r="P3" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>2</v>
+      </c>
+      <c r="R3" s="44">
+        <v>0</v>
+      </c>
+      <c r="S3" s="44">
+        <v>1</v>
+      </c>
+      <c r="T3" s="44">
+        <f>(23.65+12.12)*U3</f>
+        <v>1216.1799999999998</v>
+      </c>
+      <c r="U3" s="44">
+        <v>34</v>
+      </c>
+      <c r="V3" s="44">
+        <v>34</v>
+      </c>
+      <c r="W3" s="44">
+        <v>17</v>
+      </c>
+      <c r="X3" s="44">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="44">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="44">
+        <v>23</v>
+      </c>
+      <c r="D4" s="44">
+        <v>92</v>
+      </c>
+      <c r="E4" s="44">
+        <v>96</v>
+      </c>
+      <c r="F4" s="44">
+        <f>(24*Q4)+(48*R4)</f>
+        <v>96</v>
+      </c>
+      <c r="G4" s="44">
+        <v>25</v>
+      </c>
+      <c r="H4" s="44">
+        <v>4</v>
+      </c>
+      <c r="I4" s="44">
+        <v>23</v>
+      </c>
+      <c r="J4" s="44">
+        <v>4</v>
+      </c>
+      <c r="K4" s="44">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44">
+        <v>37</v>
+      </c>
+      <c r="M4" s="44">
+        <v>3</v>
+      </c>
+      <c r="N4" s="44">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44">
+        <v>5</v>
+      </c>
+      <c r="P4" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>2</v>
+      </c>
+      <c r="R4" s="44">
+        <v>1</v>
+      </c>
+      <c r="S4" s="44">
+        <v>0</v>
+      </c>
+      <c r="T4" s="44">
+        <f>129.09*U4</f>
+        <v>12392.64</v>
+      </c>
+      <c r="U4" s="44">
+        <v>96</v>
+      </c>
+      <c r="V4" s="44">
+        <v>96</v>
+      </c>
+      <c r="W4" s="44">
+        <v>48</v>
+      </c>
+      <c r="X4" s="44">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="44">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="44">
+        <v>10</v>
+      </c>
+      <c r="D5" s="44">
+        <v>40</v>
+      </c>
+      <c r="E5" s="44">
+        <v>50</v>
+      </c>
+      <c r="F5" s="44">
+        <f t="shared" ref="F5:F6" si="0">(24*Q5)+(48*R5)</f>
+        <v>72</v>
+      </c>
+      <c r="G5" s="44">
+        <v>15</v>
+      </c>
+      <c r="H5" s="44">
+        <v>10</v>
+      </c>
+      <c r="I5" s="44">
+        <v>10</v>
+      </c>
+      <c r="J5" s="44">
+        <v>3</v>
+      </c>
+      <c r="K5" s="44">
+        <v>3</v>
+      </c>
+      <c r="L5" s="44">
+        <v>33</v>
+      </c>
+      <c r="M5" s="44">
+        <v>4</v>
+      </c>
+      <c r="N5" s="44">
+        <v>0</v>
+      </c>
+      <c r="O5" s="44">
+        <v>5</v>
+      </c>
+      <c r="P5" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>1</v>
+      </c>
+      <c r="R5" s="44">
+        <v>1</v>
+      </c>
+      <c r="S5" s="44">
+        <v>0</v>
+      </c>
+      <c r="T5" s="44">
+        <f>113.76*U5</f>
+        <v>5688</v>
+      </c>
+      <c r="U5" s="44">
+        <v>50</v>
+      </c>
+      <c r="V5" s="44">
+        <v>50</v>
+      </c>
+      <c r="W5" s="44">
+        <v>25</v>
+      </c>
+      <c r="X5" s="44">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="44">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="44">
+        <v>4</v>
+      </c>
+      <c r="D6" s="44">
+        <v>16</v>
+      </c>
+      <c r="E6" s="44">
+        <v>18</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="44">
+        <v>5</v>
+      </c>
+      <c r="H6" s="44">
+        <v>2</v>
+      </c>
+      <c r="I6" s="44">
+        <v>4</v>
+      </c>
+      <c r="J6" s="44">
+        <v>1</v>
+      </c>
+      <c r="K6" s="44">
+        <v>1</v>
+      </c>
+      <c r="L6" s="44">
+        <v>8</v>
+      </c>
+      <c r="M6" s="44">
+        <v>1</v>
+      </c>
+      <c r="N6" s="44">
+        <v>0</v>
+      </c>
+      <c r="O6" s="44">
+        <v>2</v>
+      </c>
+      <c r="P6" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>1</v>
+      </c>
+      <c r="R6" s="44">
+        <v>0</v>
+      </c>
+      <c r="S6" s="44">
+        <v>0</v>
+      </c>
+      <c r="T6" s="44">
+        <f>24.51*18</f>
+        <v>441.18</v>
+      </c>
+      <c r="U6" s="44">
+        <v>18</v>
+      </c>
+      <c r="V6" s="44">
+        <v>18</v>
+      </c>
+      <c r="W6" s="44">
+        <v>9</v>
+      </c>
+      <c r="X6" s="44">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="44">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="47">
+        <f>SUM(C3:C6)</f>
+        <v>43</v>
+      </c>
+      <c r="D8" s="47">
+        <f t="shared" ref="D8:AA8" si="1">SUM(D3:D6)</f>
+        <v>172</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G8" s="47">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H8" s="47">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I8" s="47">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="47">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N8" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="47">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P8" s="47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R8" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S8" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="47">
+        <f t="shared" si="1"/>
+        <v>19738</v>
+      </c>
+      <c r="U8" s="47">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="V8" s="47">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="W8" s="47">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="X8" s="47">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="Y8" s="47">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="Z8" s="47">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="47">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="T9" s="48">
+        <f>T8/305</f>
+        <v>64.714754098360658</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="T10" s="44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>